--- a/biology/Botanique/Percy_Amaury_Talbot/Percy_Amaury_Talbot.xlsx
+++ b/biology/Botanique/Percy_Amaury_Talbot/Percy_Amaury_Talbot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Percy Amaury Talbot, né le 26 juin 1877 et mort le 28 décembre 1945 à Cheltenham, est un anthropologue et collecteur de plantes britannique, actif au Nigeria[1] en compagnie de sa femme, Dorothy Amaury Talbot (1871-1916).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Percy Amaury Talbot, né le 26 juin 1877 et mort le 28 décembre 1945 à Cheltenham, est un anthropologue et collecteur de plantes britannique, actif au Nigeria en compagnie de sa femme, Dorothy Amaury Talbot (1871-1916).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décerné par le Royal Anthropological Institute (RAI) de Londres, un prix (le Amaury Talbot Prize for African Anthropology) récompense chaque année le meilleur travail en anthropologie africaine[2].
-De nombreux taxons lui rendent hommage : les genres Talbotia et Talbotiella[3] ; les espèces Achyranthes talbotii, Aulacocalyx talbotii, Belonophora talbotii, Bolusiella talbotii, Globulostylis talbotii, Pauridiantha talbotii, Physacanthus talbotii, Soyauxia talbotii, Tricalysia talbotii.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décerné par le Royal Anthropological Institute (RAI) de Londres, un prix (le Amaury Talbot Prize for African Anthropology) récompense chaque année le meilleur travail en anthropologie africaine.
+De nombreux taxons lui rendent hommage : les genres Talbotia et Talbotiella ; les espèces Achyranthes talbotii, Aulacocalyx talbotii, Belonophora talbotii, Bolusiella talbotii, Globulostylis talbotii, Pauridiantha talbotii, Physacanthus talbotii, Soyauxia talbotii, Tricalysia talbotii.
 </t>
         </is>
       </c>
